--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_13-40.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_13-40.xlsx
@@ -47,31 +47,28 @@
     <t>2:2</t>
   </si>
   <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
+    <t>DOLCYL M 2/500MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 30 GM</t>
+  </si>
+  <si>
     <t>1:0</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>DOLCYL M 2/500MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 30 GM</t>
   </si>
   <si>
     <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
@@ -764,7 +761,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>-30.5</v>
+        <v>62</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -790,11 +787,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -802,7 +799,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -810,13 +807,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>17</v>
+        <v>-96</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -836,17 +833,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>-96</v>
+        <v>-15</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -854,7 +851,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -862,17 +859,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>-15</v>
+        <v>86.5</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -888,17 +885,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>86.5</v>
+        <v>19</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -914,13 +911,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -932,7 +929,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -940,17 +937,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -958,7 +955,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -966,17 +963,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -984,7 +981,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -992,17 +989,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1018,17 +1015,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1050,11 +1047,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1070,77 +1067,51 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="24.75" customHeight="1">
-      <c r="A19" s="6">
-        <v>16</v>
-      </c>
-      <c t="s" r="B19" s="7">
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="K19" s="10">
+        <v>344.5</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="11">
         <v>34</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c t="s" r="H19" s="8">
-        <v>14</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9">
-        <v>40</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c t="s" r="N19" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" ht="26.25" customHeight="1">
-      <c r="K20" s="10">
-        <v>314</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="11">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c t="s" r="F20" s="12">
         <v>35</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c t="s" r="F21" s="12">
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c t="s" r="I20" s="14">
         <v>36</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c t="s" r="I21" s="14">
-        <v>37</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="56">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1193,13 +1164,10 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:N20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
